--- a/biology/Médecine/Victor_Dessaignes/Victor_Dessaignes.xlsx
+++ b/biology/Médecine/Victor_Dessaignes/Victor_Dessaignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Dessaignes, né le 31 décembre 1800 à Vendôme et mort le 4 janvier 1885 à Paris, est un chimiste français. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean-Philibert Dessaignes (1762-1832), et frère de François-Philibert Dessaignes, il est diplômé en droit et est reçu au barreau de Paris comme avocat en 1821. Ne suivant pas cette carrière, il s'inscrit à l'École de médecine et devient docteur en médecine en 1835.
 Se consacrant à des travaux scientifiques, il reçoit pour ceux-ci un prix de l'Académie des sciences en 1862, avant d'y être admis (section de chimie) comme membre correspondant en 1869.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai sur cette question : les corps analogues par leurs propriétés chimiques se ressemblent-ils par les modifications qu'ils impriment aux organes des animaux vivants (1835)
 Travaux de chimie organique (avec Alban Ribemont-Dessaignes, 1886)
